--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P06_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P06_trail11 Features.xlsx
@@ -5547,7 +5547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5558,29 +5558,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5601,115 +5599,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5726,72 +5714,66 @@
         <v>4.124858932629246e-09</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-3.798111431510021</v>
+        <v>2.994811580814325e-08</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>16.37623296915747</v>
+        <v>3.988035607872365e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.994811580814325e-08</v>
+        <v>0.1045749919591448</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.988035607872365e-07</v>
+        <v>0.3769960810828938</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.1045749919591448</v>
+        <v>0.1526920912971036</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3769960810828938</v>
+        <v>1.9134827074545</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1526920912971036</v>
+        <v>3.36220299005417</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.957311955442974</v>
+        <v>9.440809023850875</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.36220299005417</v>
+        <v>1.007352459543889e-19</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>9.440809023850875</v>
+        <v>320607481409.868</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.007352459543889e-19</v>
+        <v>3.715747539885301e-10</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>320607481409.868</v>
+        <v>10354.49102553716</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.715747539885301e-10</v>
+        <v>2.09143360706323e-06</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>10354.49102553716</v>
+        <v>7.569459139212045</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>2.09143360706323e-06</v>
+        <v>1.823118306152375</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.569459139212045</v>
+        <v>0.0001198322683403555</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.823118306152375</v>
+        <v>9.116852601044865</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0001198322683403555</v>
+        <v>0.9583241463184332</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>9.116852601044865</v>
+        <v>0.6282893195282999</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9583241463184332</v>
+        <v>717</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.6282893195282999</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>717</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>21.36346141593631</v>
       </c>
     </row>
@@ -5806,72 +5788,66 @@
         <v>2.909450145056729e-09</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-3.340151218218299</v>
+        <v>2.140027543849658e-08</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>14.25785016475284</v>
+        <v>3.99158948272015e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.140027543849658e-08</v>
+        <v>0.09893072111989218</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.99158948272015e-07</v>
+        <v>0.3905213393625475</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.09893072111989218</v>
+        <v>0.1618887870993833</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3905213393625475</v>
+        <v>1.909250399354245</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1618887870993833</v>
+        <v>4.255052524111498</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.953640979064403</v>
+        <v>9.359385965770922</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>4.255052524111498</v>
+        <v>1.024955857207059e-19</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>9.359385965770922</v>
+        <v>316690558339.2751</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.024955857207059e-19</v>
+        <v>3.768208788448821e-10</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>316690558339.2751</v>
+        <v>10279.58052756248</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.768208788448821e-10</v>
+        <v>2.284995389377879e-06</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>10279.58052756248</v>
+        <v>7.661010867924769</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>2.284995389377879e-06</v>
+        <v>1.755230104994422</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.661010867924769</v>
+        <v>0.0001341088643772579</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.755230104994422</v>
+        <v>9.059719072692342</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0001341088643772579</v>
+        <v>0.9581986462126607</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>9.059719072692342</v>
+        <v>0.6197735288092007</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9581986462126607</v>
+        <v>719</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.6197735288092007</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>719</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>21.11585480019437</v>
       </c>
     </row>
@@ -5886,72 +5862,66 @@
         <v>2.109076642885319e-09</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-2.374766285744876</v>
+        <v>1.51636896486371e-08</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>9.388735476657791</v>
+        <v>3.993912136395769e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.51636896486371e-08</v>
+        <v>0.08675292759154314</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.993912136395769e-07</v>
+        <v>0.3924366921031082</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.08675292759154314</v>
+        <v>0.1611243191108061</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3924366921031082</v>
+        <v>1.915011884824462</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1611243191108061</v>
+        <v>3.821860434129898</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.958308950682456</v>
+        <v>9.072417802847767</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.821860434129898</v>
+        <v>1.09082175758963e-19</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>9.072417802847767</v>
+        <v>306261388892.8157</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.09082175758963e-19</v>
+        <v>3.903456212365676e-10</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>306261388892.8157</v>
+        <v>10231.47593823187</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.903456212365676e-10</v>
+        <v>2.273012466449914e-06</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>10231.47593823187</v>
+        <v>7.303257848016708</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>2.273012466449914e-06</v>
+        <v>1.923063997455034</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.303257848016708</v>
+        <v>0.0001212369733475756</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.923063997455034</v>
+        <v>9.027964941782001</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0001212369733475756</v>
+        <v>0.9589738599641595</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>9.027964941782001</v>
+        <v>0.6367747052397741</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9589738599641595</v>
+        <v>718</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.6367747052397741</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>718</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>21.21029706174811</v>
       </c>
     </row>
@@ -5966,72 +5936,66 @@
         <v>1.640367482744616e-09</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-1.04199481976087</v>
+        <v>1.063153034795989e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>3.082567799736651</v>
+        <v>3.995337728433696e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.063153034795989e-08</v>
+        <v>0.06505621789314024</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.995337728433696e-07</v>
+        <v>0.3663085451321937</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.06505621789314024</v>
+        <v>0.1380576184192051</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3663085451321937</v>
+        <v>1.911406626559105</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1380576184192051</v>
+        <v>3.646626503442711</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.954976130396374</v>
+        <v>8.878288005400083</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.646626503442711</v>
+        <v>1.139046405369597e-19</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>8.878288005400083</v>
+        <v>300363388813.7739</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.139046405369597e-19</v>
+        <v>3.982495338950772e-10</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>300363388813.7739</v>
+        <v>10276.26769292188</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.982495338950772e-10</v>
+        <v>2.23810631028423e-06</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>10276.26769292188</v>
+        <v>6.906833447057871</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>2.23810631028423e-06</v>
+        <v>2.104974956421963</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>6.906833447057871</v>
+        <v>0.0001067674028807823</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>2.104974956421963</v>
+        <v>9.046833850216828</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0001067674028807823</v>
+        <v>0.958807479448086</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>9.046833850216828</v>
+        <v>0.6341534010661196</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.958807479448086</v>
+        <v>712</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.6341534010661196</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>712</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>21.40861111446739</v>
       </c>
     </row>
@@ -6046,72 +6010,66 @@
         <v>1.420932736532378e-09</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.08794307431530474</v>
+        <v>7.344132872878747e-09</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.5189503166847222</v>
+        <v>3.996109920380623e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>7.344132872878747e-09</v>
+        <v>0.03595192912602948</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.996109920380623e-07</v>
+        <v>0.3049069534795387</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.03595192912602948</v>
+        <v>0.0940129131098366</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.3049069534795387</v>
+        <v>1.909850144940849</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.0940129131098366</v>
+        <v>3.756708506786032</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.951064413512907</v>
+        <v>8.753573596924857</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.756708506786032</v>
+        <v>1.171734186571635e-19</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>8.753573596924857</v>
+        <v>295064788020.3868</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.171734186571635e-19</v>
+        <v>4.058880817405941e-10</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>295064788020.3868</v>
+        <v>10201.49619643731</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.058880817405941e-10</v>
+        <v>2.328305756896421e-06</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>10201.49619643731</v>
+        <v>6.732663275458599</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>2.328305756896421e-06</v>
+        <v>2.079241187066397</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>6.732663275458599</v>
+        <v>0.0001055392007088707</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>2.079241187066397</v>
+        <v>9.064173816238387</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0001055392007088707</v>
+        <v>0.9595497766410088</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>9.064173816238387</v>
+        <v>0.637344020094708</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9595497766410088</v>
+        <v>712</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.637344020094708</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>712</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>21.38027766213451</v>
       </c>
     </row>
@@ -6126,72 +6084,66 @@
         <v>1.355306525501529e-09</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.1812668432729943</v>
+        <v>4.985996393419038e-09</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.174040878934671</v>
+        <v>3.99640752323784e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.985996393419038e-09</v>
+        <v>0.008061324254719057</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.99640752323784e-07</v>
+        <v>0.2291241760495421</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.008061324254719057</v>
+        <v>0.0524243605511515</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2291241760495421</v>
+        <v>1.913354220965562</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.0524243605511515</v>
+        <v>3.988816298986031</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.954744521259412</v>
+        <v>8.415743339714039</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.988816298986031</v>
+        <v>1.14863451233612e-19</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>8.415743339714039</v>
+        <v>298485944847.9677</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.14863451233612e-19</v>
+        <v>4.015738546676622e-10</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>298485944847.9677</v>
+        <v>10233.62815967886</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.015738546676622e-10</v>
+        <v>2.375402583456359e-06</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>10233.62815967886</v>
+        <v>6.873683903842991</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>2.375402583456359e-06</v>
+        <v>1.926817455414761</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>6.873683903842991</v>
+        <v>0.0001122319057977287</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.926817455414761</v>
+        <v>9.05993134333972</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0001122319057977287</v>
+        <v>0.9598541406822447</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>9.05993134333972</v>
+        <v>0.6572397347916137</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9598541406822447</v>
+        <v>713</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.6572397347916137</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>713</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>21.08706298742279</v>
       </c>
     </row>
@@ -6206,72 +6158,66 @@
         <v>1.360021306308331e-09</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.1778148156234534</v>
+        <v>4.392150993561884e-09</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.183195888521273</v>
+        <v>3.996363839900975e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4.392150993561884e-09</v>
+        <v>-0.01311274374931248</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.996363839900975e-07</v>
+        <v>0.1631493962001329</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.01311274374931248</v>
+        <v>0.0267217322243219</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1631493962001329</v>
+        <v>1.918955869563134</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.0267217322243219</v>
+        <v>3.946042491099907</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.956467063750287</v>
+        <v>8.430737980988036</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>3.946042491099907</v>
+        <v>1.144552296509925e-19</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>8.430737980988036</v>
+        <v>299866532767.5565</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.144552296509925e-19</v>
+        <v>4.007508860417901e-10</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>299866532767.5565</v>
+        <v>10291.80709379368</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>4.007508860417901e-10</v>
+        <v>2.261947628934131e-06</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>10291.80709379368</v>
+        <v>7.372071527671932</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>2.261947628934131e-06</v>
+        <v>1.869348427181199</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.372071527671932</v>
+        <v>0.0001229310599005222</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.869348427181199</v>
+        <v>9.063125972883995</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.0001229310599005222</v>
+        <v>0.9611269404435997</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>9.063125972883995</v>
+        <v>0.6428201576719158</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9611269404435997</v>
+        <v>719</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.6428201576719158</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>719</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>21.00790719771363</v>
       </c>
     </row>
@@ -6286,72 +6232,66 @@
         <v>1.385681632100312e-09</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.1703742384179953</v>
+        <v>4.4480278549624e-09</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.209133682280755</v>
+        <v>3.9960768081062e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>4.4480278549624e-09</v>
+        <v>-0.0276071511159568</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.9960768081062e-07</v>
+        <v>0.1143254381973566</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.0276071511159568</v>
+        <v>0.0138007459325803</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1143254381973566</v>
+        <v>1.926184700790928</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.0138007459325803</v>
+        <v>4.174397371245974</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.962299254553988</v>
+        <v>8.450441249977516</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>4.174397371245974</v>
+        <v>1.095911910310254e-19</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>8.450441249977516</v>
+        <v>312281411899.8207</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.095911910310254e-19</v>
+        <v>3.850934440435961e-10</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>312281411899.8207</v>
+        <v>10687.29790407129</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>3.850934440435961e-10</v>
+        <v>2.142098186208305e-06</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>10687.29790407129</v>
+        <v>7.318565426706207</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>2.142098186208305e-06</v>
+        <v>2.01876510455609</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.318565426706207</v>
+        <v>0.000114733777587234</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>2.01876510455609</v>
+        <v>9.060550547282954</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.000114733777587234</v>
+        <v>0.9609858555255899</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>9.060550547282954</v>
+        <v>0.6184349143949741</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9609858555255899</v>
+        <v>727</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.6184349143949741</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>727</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>21.3275444526543</v>
       </c>
     </row>
@@ -6366,72 +6306,66 @@
         <v>1.410460459091763e-09</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.1971872368477973</v>
+        <v>4.506039909287179e-09</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.220905363827328</v>
+        <v>3.995617287466819e-07</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>4.506039909287179e-09</v>
+        <v>-0.03736675093024755</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.995617287466819e-07</v>
+        <v>0.08020521031147161</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.03736675093024755</v>
+        <v>0.007814945859047051</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.08020521031147161</v>
+        <v>1.916390467597402</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.007814945859047051</v>
+        <v>3.992924635819154</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.955030762737676</v>
+        <v>8.467933468185596</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>3.992924635819154</v>
+        <v>1.091388934150287e-19</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>8.467933468185596</v>
+        <v>309140010564.3558</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.091388934150287e-19</v>
+        <v>3.866750850030015e-10</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>309140010564.3558</v>
+        <v>10430.13623120672</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>3.866750850030015e-10</v>
+        <v>2.265784114974775e-06</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>10430.13623120672</v>
+        <v>7.087499196990296</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>2.265784114974775e-06</v>
+        <v>2.18576785657224</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.087499196990296</v>
+        <v>0.0001138163287935838</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>2.18576785657224</v>
+        <v>9.052819896461164</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.0001138163287935838</v>
+        <v>0.9606363602202117</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>9.052819896461164</v>
+        <v>0.6165402056208208</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9606363602202117</v>
+        <v>713</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.6165402056208208</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>713</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>21.87849222372771</v>
       </c>
     </row>
@@ -6446,72 +6380,66 @@
         <v>1.427006841814159e-09</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.2399329903936152</v>
+        <v>4.566271729206025e-09</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.194981592538199</v>
+        <v>3.995036518618794e-07</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>4.566271729206025e-09</v>
+        <v>-0.04397148328252183</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.995036518618794e-07</v>
+        <v>0.05746046215436907</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.04397148328252183</v>
+        <v>0.005229259806891948</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.05746046215436907</v>
+        <v>1.918065808933814</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.005229259806891948</v>
+        <v>4.238649898284522</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.952430766143831</v>
+        <v>8.577407935873271</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>4.238649898284522</v>
+        <v>1.080460389232583e-19</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>8.577407935873271</v>
+        <v>311485545932.3279</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.080460389232583e-19</v>
+        <v>3.841591139758978e-10</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>311485545932.3279</v>
+        <v>10482.9773408199</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>3.841591139758978e-10</v>
+        <v>2.496030152819116e-06</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>10482.9773408199</v>
+        <v>6.306522937851838</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>2.496030152819116e-06</v>
+        <v>2.349335133890634</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>6.306522937851838</v>
+        <v>9.927268923277011e-05</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>2.349335133890634</v>
+        <v>9.027949510275381</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>9.927268923277011e-05</v>
+        <v>0.9609651813942773</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>9.027949510275381</v>
+        <v>0.6214848386174381</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9609651813942773</v>
+        <v>725</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.6214848386174381</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>725</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>22.23998761334038</v>
       </c>
     </row>
@@ -6526,72 +6454,66 @@
         <v>1.434167628641412e-09</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.283268080314991</v>
+        <v>4.628574489989526e-09</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.144422088282121</v>
+        <v>3.994372179019843e-07</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>4.628574489989526e-09</v>
+        <v>-0.04855733293660781</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.994372179019843e-07</v>
+        <v>0.04289492191999133</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.04855733293660781</v>
+        <v>0.004195511076821918</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.04289492191999133</v>
+        <v>1.921905981729953</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.004195511076821918</v>
+        <v>4.21685526443328</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.954079171854188</v>
+        <v>8.595962229366599</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>4.21685526443328</v>
+        <v>1.075801098550897e-19</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>8.595962229366599</v>
+        <v>312233302278.1669</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.075801098550897e-19</v>
+        <v>3.835657063222746e-10</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>312233302278.1669</v>
+        <v>10487.94564857611</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>3.835657063222746e-10</v>
+        <v>2.486535747277616e-06</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>10487.94564857611</v>
+        <v>5.823645632523037</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>2.486535747277616e-06</v>
+        <v>2.337042144874519</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>5.823645632523037</v>
+        <v>8.43304830423963e-05</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>2.337042144874519</v>
+        <v>9.009475166668578</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>8.43304830423963e-05</v>
+        <v>0.9610490575378183</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>9.009475166668578</v>
+        <v>0.6267516859017939</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9610490575378183</v>
+        <v>737</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.6267516859017939</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>737</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>22.08435771218762</v>
       </c>
     </row>
@@ -6606,72 +6528,66 @@
         <v>1.433045564473175e-09</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.3198531707624884</v>
+        <v>4.699554654592308e-09</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.085161983333278</v>
+        <v>3.993649840511619e-07</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>4.699554654592308e-09</v>
+        <v>-0.05201900144963369</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.993649840511619e-07</v>
+        <v>0.03358169883462887</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05201900144963369</v>
+        <v>0.003832827680031038</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.03358169883462887</v>
+        <v>1.918949755663456</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.003832827680031038</v>
+        <v>4.02711304010718</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.95222388596009</v>
+        <v>8.638966909903399</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>4.02711304010718</v>
+        <v>1.094167868756972e-19</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>8.638966909903399</v>
+        <v>308227995845.6028</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.094167868756972e-19</v>
+        <v>3.882336984673685e-10</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>308227995845.6028</v>
+        <v>10395.08684676478</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>3.882336984673685e-10</v>
+        <v>2.12497432248515e-06</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>10395.08684676478</v>
+        <v>6.543931188269724</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>2.12497432248515e-06</v>
+        <v>2.152633089362181</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>6.543931188269724</v>
+        <v>9.099785062909223e-05</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>2.152633089362181</v>
+        <v>9.057536247159616</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>9.099785062909223e-05</v>
+        <v>0.9615748577030621</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>9.057536247159616</v>
+        <v>0.6132810507919909</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9615748577030621</v>
+        <v>727</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.6132810507919909</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>727</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>21.6350788570226</v>
       </c>
     </row>
@@ -6686,72 +6602,66 @@
         <v>1.424927019453444e-09</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.3462705749528986</v>
+        <v>4.769234788491942e-09</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.028660035546987</v>
+        <v>3.992885072855573e-07</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>4.769234788491942e-09</v>
+        <v>-0.05483275580962409</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.992885072855573e-07</v>
+        <v>0.02706465758434846</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05483275580962409</v>
+        <v>0.003739063018535498</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.02706465758434846</v>
+        <v>1.914822397936216</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.003739063018535498</v>
+        <v>4.055163360255964</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.947618240424032</v>
+        <v>8.605727199914469</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>4.055163360255964</v>
+        <v>1.102636661968173e-19</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>8.605727199914469</v>
+        <v>305001003518.7422</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.102636661968173e-19</v>
+        <v>3.924805102417432e-10</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>305001003518.7422</v>
+        <v>10257.3450455799</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>3.924805102417432e-10</v>
+        <v>1.759656015846644e-06</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>10257.3450455799</v>
+        <v>6.662957649325394</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>1.759656015846644e-06</v>
+        <v>2.19826367167393</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>6.662957649325394</v>
+        <v>7.811993698251546e-05</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>2.19826367167393</v>
+        <v>9.1203290335933</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>7.811993698251546e-05</v>
+        <v>0.9616088358978294</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>9.1203290335933</v>
+        <v>0.6544085683537272</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9616088358978294</v>
+        <v>724</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.6544085683537272</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>724</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>21.45382302172261</v>
       </c>
     </row>
@@ -6766,72 +6676,66 @@
         <v>1.410828918117716e-09</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.3620406793710885</v>
+        <v>4.820222293966196e-09</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.9832436942081966</v>
+        <v>3.992092521332076e-07</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>4.820222293966196e-09</v>
+        <v>-0.0568018091174067</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.992092521332076e-07</v>
+        <v>0.02380348517859248</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.0568018091174067</v>
+        <v>0.003793352730065999</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.02380348517859248</v>
+        <v>1.922245840205565</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.003793352730065999</v>
+        <v>4.324798884631747</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.94991379150937</v>
+        <v>8.647604063255342</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>4.324798884631747</v>
+        <v>1.167303514497898e-19</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>8.647604063255342</v>
+        <v>292589622003.3109</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.167303514497898e-19</v>
+        <v>4.104123919837958e-10</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>292589622003.3109</v>
+        <v>9993.13210946365</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>4.104123919837958e-10</v>
+        <v>1.723628371209305e-06</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>9993.13210946365</v>
+        <v>6.810192998472018</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>1.723628371209305e-06</v>
+        <v>2.258771011970374</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>6.810192998472018</v>
+        <v>7.993969256732593e-05</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>2.258771011970374</v>
+        <v>9.148105691590228</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>7.993969256732593e-05</v>
+        <v>0.9602485468233801</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>9.148105691590228</v>
+        <v>0.6656478263857988</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9602485468233801</v>
+        <v>716</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.6656478263857988</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>716</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>21.6435283171982</v>
       </c>
     </row>
@@ -6846,72 +6750,66 @@
         <v>1.392043004084557e-09</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.3681687282918823</v>
+        <v>4.869563039037492e-09</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.9530950647050851</v>
+        <v>3.991285269460855e-07</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>4.869563039037492e-09</v>
+        <v>-0.05829831638385716</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.991285269460855e-07</v>
+        <v>0.02277481673217236</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.05829831638385716</v>
+        <v>0.003917713617038341</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.02277481673217236</v>
+        <v>1.922769704173112</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.003917713617038341</v>
+        <v>4.523077498278174</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.948142082086211</v>
+        <v>8.372046508016671</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>4.523077498278174</v>
+        <v>1.245409351541227e-19</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>8.372046508016671</v>
+        <v>285273960394.946</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.245409351541227e-19</v>
+        <v>4.214916498508233e-10</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>285273960394.946</v>
+        <v>10135.29479698169</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>4.214916498508233e-10</v>
+        <v>1.970599668889075e-06</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>10135.29479698169</v>
+        <v>6.70443561176562</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>1.970599668889075e-06</v>
+        <v>2.250832479449491</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>6.70443561176562</v>
+        <v>8.85773848293199e-05</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>2.250832479449491</v>
+        <v>9.11358037985282</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>8.85773848293199e-05</v>
+        <v>0.959605570680642</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>9.11358037985282</v>
+        <v>0.6979318056247226</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.959605570680642</v>
+        <v>721</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.6979318056247226</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>721</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>21.8413505469644</v>
       </c>
     </row>
@@ -6926,72 +6824,66 @@
         <v>1.370198656001342e-09</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.3658936696152747</v>
+        <v>4.877388385828036e-09</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.9384322265647587</v>
+        <v>3.990472385296108e-07</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>4.877388385828036e-09</v>
+        <v>-0.05932464054386206</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.990472385296108e-07</v>
+        <v>0.02300612010088654</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.05932464054386206</v>
+        <v>0.004048930610236538</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.02300612010088654</v>
+        <v>1.927283841720797</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.004048930610236538</v>
+        <v>4.521243916418959</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.94796008976783</v>
+        <v>8.381982708007062</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>4.521243916418959</v>
+        <v>1.242458426390287e-19</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>8.381982708007062</v>
+        <v>284928416110.4899</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.242458426390287e-19</v>
+        <v>4.224351527601622e-10</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>284928416110.4899</v>
+        <v>10086.79962463948</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>4.224351527601622e-10</v>
+        <v>2.320159956474057e-06</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>10086.79962463948</v>
+        <v>6.711954858470683</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>2.320159956474057e-06</v>
+        <v>2.115889238451989</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>6.711954858470683</v>
+        <v>0.000104523990304609</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>2.115889238451989</v>
+        <v>9.052774800243059</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.000104523990304609</v>
+        <v>0.9597286608520749</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>9.052774800243059</v>
+        <v>0.7000825842787922</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9597286608520749</v>
+        <v>715</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.7000825842787922</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>715</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>21.47176911328895</v>
       </c>
     </row>
@@ -7006,72 +6898,66 @@
         <v>1.346538735491973e-09</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.3569067846020459</v>
+        <v>4.856172406139847e-09</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.9379951582122117</v>
+        <v>3.98966102982038e-07</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>4.856172406139847e-09</v>
+        <v>-0.06010620364213367</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>3.98966102982038e-07</v>
+        <v>0.02353603957240643</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.06010620364213367</v>
+        <v>0.004166760249091974</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.02353603957240643</v>
+        <v>1.930382046425308</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.004166760249091974</v>
+        <v>3.933042401882777</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.950817765013962</v>
+        <v>8.535644199963528</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>3.933042401882777</v>
+        <v>1.198126791563707e-19</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>8.535644199963528</v>
+        <v>291003419292.4935</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.198126791563707e-19</v>
+        <v>4.137334389819771e-10</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>291003419292.4935</v>
+        <v>10146.09591565541</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>4.137334389819771e-10</v>
+        <v>2.327256656904631e-06</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>10146.09591565541</v>
+        <v>7.100844247626491</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>2.327256656904631e-06</v>
+        <v>1.911672148603219</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>7.100844247626491</v>
+        <v>0.0001173449096222294</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.911672148603219</v>
+        <v>9.04270587919126</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.0001173449096222294</v>
+        <v>0.9609727839209384</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>9.04270587919126</v>
+        <v>0.6829665746037014</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9609727839209384</v>
+        <v>706</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.6829665746037014</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>706</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>20.80049031418933</v>
       </c>
     </row>
@@ -7086,72 +6972,66 @@
         <v>1.322135693220954e-09</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.3419962081672567</v>
+        <v>4.819601004159509e-09</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.9503153281440948</v>
+        <v>3.9888545056815e-07</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>4.819601004159509e-09</v>
+        <v>-0.060756005403927</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>3.9888545056815e-07</v>
+        <v>0.02396060717806337</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.060756005403927</v>
+        <v>0.004265270214945634</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.02396060717806337</v>
+        <v>1.927736533568493</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.004265270214945634</v>
+        <v>3.754915328324512</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.954559786306539</v>
+        <v>8.809735565097847</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>3.754915328324512</v>
+        <v>1.124733527811064e-19</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>8.809735565097847</v>
+        <v>302859822451.7871</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.124733527811064e-19</v>
+        <v>3.962634842934568e-10</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>302859822451.7871</v>
+        <v>10316.51391482103</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>3.962634842934568e-10</v>
+        <v>2.023163043805181e-06</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>10316.51391482103</v>
+        <v>6.585547309141126</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>2.023163043805181e-06</v>
+        <v>2.024537847214505</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>6.585547309141126</v>
+        <v>8.774343480661709e-05</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>2.024537847214505</v>
+        <v>9.051920104648159</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>8.774343480661709e-05</v>
+        <v>0.9587487092716447</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>9.051920104648159</v>
+        <v>0.6760036161811489</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9587487092716447</v>
+        <v>711</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.6760036161811489</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>711</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>20.44024691780253</v>
       </c>
     </row>
@@ -7166,72 +7046,66 @@
         <v>1.297957323983241e-09</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.3221602132886366</v>
+        <v>4.770286296447437e-09</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.9729023088149176</v>
+        <v>3.988055218209368e-07</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>4.770286296447437e-09</v>
+        <v>-0.06125603403013501</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>3.988055218209368e-07</v>
+        <v>0.02410301700322618</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.06125603403013501</v>
+        <v>0.004332883689823057</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.02410301700322618</v>
+        <v>1.929229588547934</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.004332883689823057</v>
+        <v>4.043531350826118</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.957961664745161</v>
+        <v>9.051145087419663</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>4.043531350826118</v>
+        <v>1.065536506612594e-19</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>9.051145087419663</v>
+        <v>308204175670.6588</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.065536506612594e-19</v>
+        <v>3.878749370101277e-10</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>308204175670.6588</v>
+        <v>10121.51144676711</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>3.878749370101277e-10</v>
+        <v>1.803981067731155e-06</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>10121.51144676711</v>
+        <v>6.252393028428945</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>1.803981067731155e-06</v>
+        <v>2.258180630635633</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>6.252393028428945</v>
+        <v>7.052198301365378e-05</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>2.258180630635633</v>
+        <v>9.080288531239809</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>7.052198301365378e-05</v>
+        <v>0.9575512332070037</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>9.080288531239809</v>
+        <v>0.6807640690912107</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9575512332070037</v>
+        <v>707</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.6807640690912107</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>707</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>20.53156283439025</v>
       </c>
     </row>
@@ -7246,72 +7120,66 @@
         <v>1.274965813766087e-09</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.2985837194947131</v>
+        <v>4.714974304142623e-09</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.001818202945428</v>
+        <v>3.987264702558437e-07</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>4.714974304142623e-09</v>
+        <v>-0.06163830192280826</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>3.987264702558437e-07</v>
+        <v>0.02388273867156622</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.06163830192280826</v>
+        <v>0.004369155584162952</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.02388273867156622</v>
+        <v>1.922757908990187</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.004369155584162952</v>
+        <v>4.017085724995043</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.950888171818732</v>
+        <v>8.962008625667552</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>4.017085724995043</v>
+        <v>1.086837642581288e-19</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>8.962008625667552</v>
+        <v>303633067154.1462</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.086837642581288e-19</v>
+        <v>3.923527731088921e-10</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>303633067154.1462</v>
+        <v>10019.88656793636</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>3.923527731088921e-10</v>
+        <v>1.732871483925613e-06</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>10019.88656793636</v>
+        <v>6.763803524255236</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>1.732871483925613e-06</v>
+        <v>2.152978534378533</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>6.763803524255236</v>
+        <v>7.927720356603737e-05</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>2.152978534378533</v>
+        <v>9.104803559418416</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>7.927720356603737e-05</v>
+        <v>0.955448102874757</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>9.104803559418416</v>
+        <v>0.6639278202865664</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.955448102874757</v>
+        <v>708</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.6639278202865664</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>708</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>20.66103149393444</v>
       </c>
     </row>
@@ -7326,72 +7194,66 @@
         <v>1.253799459524404e-09</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.2727646123692145</v>
+        <v>4.645400552274608e-09</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.033150829326634</v>
+        <v>3.986484456024139e-07</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>4.645400552274608e-09</v>
+        <v>-0.06175502179305332</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>3.986484456024139e-07</v>
+        <v>0.02319090169466706</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.06175502179305332</v>
+        <v>0.004350760410253263</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.02319090169466706</v>
+        <v>1.918928998566624</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.004350760410253263</v>
+        <v>4.248852353111315</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.949517918204953</v>
+        <v>9.007671533043712</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>4.248852353111315</v>
+        <v>1.075846483430821e-19</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>9.007671533043712</v>
+        <v>304648643485.4146</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.075846483430821e-19</v>
+        <v>3.906137268743182e-10</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>304648643485.4146</v>
+        <v>9985.016847681223</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>3.906137268743182e-10</v>
+        <v>1.835324668240408e-06</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>9985.016847681223</v>
+        <v>7.096473737442202</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>1.835324668240408e-06</v>
+        <v>2.005112538856577</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>7.096473737442202</v>
+        <v>9.242683926683618e-05</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>2.005112538856577</v>
+        <v>9.10283445828123</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>9.242683926683618e-05</v>
+        <v>0.9555675647992442</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>9.10283445828123</v>
+        <v>0.6635167051270278</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9555675647992442</v>
+        <v>716</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.6635167051270278</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>716</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>20.28451400276797</v>
       </c>
     </row>
@@ -7406,72 +7268,66 @@
         <v>1.234919747705403e-09</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.2464895279709239</v>
+        <v>4.577562898359652e-09</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.062726210675551</v>
+        <v>3.985715959576973e-07</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>4.577562898359652e-09</v>
+        <v>-0.06178332924788812</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>3.985715959576973e-07</v>
+        <v>0.02231359198041531</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.06178332924788812</v>
+        <v>0.004314398482837109</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.02231359198041531</v>
+        <v>1.914538969710117</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.004314398482837109</v>
+        <v>4.307844750951567</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.944530016086546</v>
+        <v>9.037178612350473</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>4.307844750951567</v>
+        <v>1.068832510641585e-19</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>9.037178612350473</v>
+        <v>303052828763.1201</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.068832510641585e-19</v>
+        <v>3.916713981225422e-10</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>303052828763.1201</v>
+        <v>9816.266480278358</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>3.916713981225422e-10</v>
+        <v>1.960324052260662e-06</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>9816.266480278358</v>
+        <v>6.814113660869014</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>1.960324052260662e-06</v>
+        <v>2.007649555490528</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>6.814113660869014</v>
+        <v>9.102205060870298e-05</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>2.007649555490528</v>
+        <v>9.109614548821368</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>9.102205060870298e-05</v>
+        <v>0.9551229022965577</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>9.109614548821368</v>
+        <v>0.6792410031594527</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9551229022965577</v>
+        <v>707</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.6792410031594527</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>707</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>19.58444804411177</v>
       </c>
     </row>
@@ -7486,72 +7342,66 @@
         <v>1.218237921138401e-09</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.2197917089732118</v>
+        <v>4.51918185131553e-09</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.090250524709879</v>
+        <v>3.984957877303869e-07</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>4.51918185131553e-09</v>
+        <v>-0.06182982021511611</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>3.984957877303869e-07</v>
+        <v>0.02166989091266361</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.06182982021511611</v>
+        <v>0.004291977230293894</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.02166989091266361</v>
+        <v>1.909548401510625</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.004291977230293894</v>
+        <v>4.286447905929831</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.939528288889763</v>
+        <v>9.013491928629145</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>4.286447905929831</v>
+        <v>1.074457492260686e-19</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>9.013491928629145</v>
+        <v>299814452058.6115</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.074457492260686e-19</v>
+        <v>3.954094374081362e-10</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>299814452058.6115</v>
+        <v>9658.159326944666</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>3.954094374081362e-10</v>
+        <v>1.867995945085394e-06</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>9658.159326944666</v>
+        <v>6.141740473842188</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>1.867995945085394e-06</v>
+        <v>2.193451363886572</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>6.141740473842188</v>
+        <v>7.046263030238567e-05</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>2.193451363886572</v>
+        <v>9.103108766250077</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>7.046263030238567e-05</v>
+        <v>0.9558707902938233</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>9.103108766250077</v>
+        <v>0.6737761530695555</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9558707902938233</v>
+        <v>703</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.6737761530695555</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>703</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>19.42608116379574</v>
       </c>
     </row>
@@ -7566,72 +7416,66 @@
         <v>1.203434934750223e-09</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.1934934662225143</v>
+        <v>4.446206579532549e-09</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.116246494695829</v>
+        <v>3.984210551641745e-07</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>4.446206579532549e-09</v>
+        <v>-0.06157975616479427</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>3.984210551641745e-07</v>
+        <v>0.02080024252016724</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.06157975616479427</v>
+        <v>0.004224127391867919</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.02080024252016724</v>
+        <v>1.914516048428613</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.004224127391867919</v>
+        <v>3.988559561972097</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.941283806976444</v>
+        <v>10.32047046488578</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>3.988559561972097</v>
+        <v>1.110993978014663e-19</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>10.32047046488578</v>
+        <v>295698117461.636</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1.110993978014663e-19</v>
+        <v>4.026262531596206e-10</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>295698117461.636</v>
+        <v>9714.239893416467</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>4.026262531596206e-10</v>
+        <v>1.771423120809658e-06</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>9714.239893416467</v>
+        <v>6.29350878492498</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>1.771423120809658e-06</v>
+        <v>2.244962299663689</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>6.29350878492498</v>
+        <v>7.016297483072315e-05</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>2.244962299663689</v>
+        <v>9.097034410155562</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>7.016297483072315e-05</v>
+        <v>0.9567815396254654</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>9.097034410155562</v>
+        <v>0.6680950471183186</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9567815396254654</v>
+        <v>715</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>0.6680950471183186</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>715</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>19.88122413750992</v>
       </c>
     </row>
@@ -7646,72 +7490,66 @@
         <v>1.190445764472263e-09</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.1693193161691397</v>
+        <v>4.374547743805792e-09</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.13926729604156</v>
+        <v>3.983475582204478e-07</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>4.374547743805792e-09</v>
+        <v>-0.0612483216094076</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>3.983475582204478e-07</v>
+        <v>0.01986380579552739</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.0612483216094076</v>
+        <v>0.004145365889501203</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.01986380579552739</v>
+        <v>1.913739477733563</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.004145365889501203</v>
+        <v>3.799792398070043</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.941869129090023</v>
+        <v>9.914110151740239</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>3.799792398070043</v>
+        <v>1.203935486948345e-19</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>9.914110151740239</v>
+        <v>285672101742.902</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.203935486948345e-19</v>
+        <v>4.180256982251009e-10</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>285672101742.902</v>
+        <v>9825.142903932196</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>4.180256982251009e-10</v>
+        <v>1.858203981688621e-06</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>9825.142903932196</v>
+        <v>6.843515383576749</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>1.858203981688621e-06</v>
+        <v>2.106409914178341</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>6.843515383576749</v>
+        <v>8.70265730299401e-05</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>2.106409914178341</v>
+        <v>9.087302936272742</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>8.70265730299401e-05</v>
+        <v>0.9569563617837183</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>9.087302936272742</v>
+        <v>0.6883968646486828</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9569563617837183</v>
+        <v>705</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>0.6883968646486828</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>705</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>20.45931328140981</v>
       </c>
     </row>
@@ -7726,72 +7564,66 @@
         <v>1.179295071082205e-09</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.147734753160987</v>
+        <v>4.302283449955206e-09</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.158185323033744</v>
+        <v>3.98275238935954e-07</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>4.302283449955206e-09</v>
+        <v>-0.06080636436381721</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>3.98275238935954e-07</v>
+        <v>0.01873457108210805</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.06080636436381721</v>
+        <v>0.004047770426371613</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.01873457108210805</v>
+        <v>1.909575438996697</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.004047770426371613</v>
+        <v>4.143112758539635</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.942860414077617</v>
+        <v>9.801486429510007</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>4.143112758539635</v>
+        <v>1.231762021883611e-19</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>9.801486429510007</v>
+        <v>282960449433.2277</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.231762021883611e-19</v>
+        <v>4.216136490466795e-10</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>282960449433.2277</v>
+        <v>9862.30167398877</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>4.216136490466795e-10</v>
+        <v>2.047023712694799e-06</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>9862.30167398877</v>
+        <v>7.076774780388005</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>2.047023712694799e-06</v>
+        <v>1.981073191157473</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>7.076774780388005</v>
+        <v>0.0001025164649747447</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.981073191157473</v>
+        <v>9.110017913380148</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.0001025164649747447</v>
+        <v>0.9567206615148028</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>9.110017913380148</v>
+        <v>0.6727699184994254</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9567206615148028</v>
+        <v>707</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>0.6727699184994254</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>707</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>20.83336097785041</v>
       </c>
     </row>
@@ -7806,72 +7638,66 @@
         <v>1.170078701318054e-09</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.1301335609624776</v>
+        <v>4.222189944012946e-09</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.171041682967726</v>
+        <v>3.982041981477292e-07</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>4.222189944012946e-09</v>
+        <v>-0.0601447180303107</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>3.982041981477292e-07</v>
+        <v>0.01719347273084906</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.0601447180303107</v>
+        <v>0.003912319811983318</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.01719347273084906</v>
+        <v>1.912979986857702</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.003912319811983318</v>
+        <v>4.198667817327038</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.94598126047151</v>
+        <v>9.909810558805562</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>4.198667817327038</v>
+        <v>1.204980422255285e-19</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>9.909810558805562</v>
+        <v>287638959812.305</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.204980422255285e-19</v>
+        <v>4.145956150157255e-10</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>287638959812.305</v>
+        <v>9969.546651065682</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>4.145956150157255e-10</v>
+        <v>1.995417205921583e-06</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>9969.546651065682</v>
+        <v>7.44717381334367</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>1.995417205921583e-06</v>
+        <v>1.895868646964366</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>7.44717381334367</v>
+        <v>0.0001106666320296507</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.895868646964366</v>
+        <v>9.196647864816475</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.0001106666320296507</v>
+        <v>0.955467819401821</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>9.196647864816475</v>
+        <v>0.655918059853024</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.955467819401821</v>
+        <v>715</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>0.655918059853024</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>715</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>20.75350699268844</v>
       </c>
     </row>
@@ -7886,72 +7712,66 @@
         <v>1.162855737372951e-09</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.1173853164044772</v>
+        <v>4.147828990890062e-09</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.17636177806596</v>
+        <v>3.981344629249612e-07</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>4.147828990890062e-09</v>
+        <v>-0.05945190496422349</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>3.981344629249612e-07</v>
+        <v>0.0155940594553447</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.05945190496422349</v>
+        <v>0.003777153214388559</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.0155940594553447</v>
+        <v>1.917109167931534</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.003777153214388559</v>
+        <v>3.852707662363552</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.948456455634206</v>
+        <v>9.991390443017828</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>3.852707662363552</v>
+        <v>1.185383381300757e-19</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>9.991390443017828</v>
+        <v>291718104634.1979</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.185383381300757e-19</v>
+        <v>4.10382039138641e-10</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>291718104634.1979</v>
+        <v>10087.54768358925</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>4.10382039138641e-10</v>
+        <v>1.586560427687581e-06</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>10087.54768358925</v>
+        <v>6.702423649473951</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>1.586560427687581e-06</v>
+        <v>2.09671265038125</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>6.702423649473951</v>
+        <v>7.127223348750908e-05</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>2.09671265038125</v>
+        <v>9.257429880219254</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>7.127223348750908e-05</v>
+        <v>0.9576939839253088</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>9.257429880219254</v>
+        <v>0.683806177937996</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9576939839253088</v>
+        <v>729</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>0.683806177937996</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>729</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>20.77507150462389</v>
       </c>
     </row>
@@ -7966,72 +7786,66 @@
         <v>1.157269355695183e-09</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.1092977853954205</v>
+        <v>4.077631367635119e-09</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.175261081466151</v>
+        <v>3.98065916923043e-07</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>4.077631367635119e-09</v>
+        <v>-0.05872710059200189</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>3.98065916923043e-07</v>
+        <v>0.01439262098820688</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.05872710059200189</v>
+        <v>0.003655595813060754</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.01439262098820688</v>
+        <v>1.913075164809479</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.003655595813060754</v>
+        <v>3.628733991710985</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.953667197267128</v>
+        <v>10.39442009475124</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>3.628733991710985</v>
+        <v>1.095242191300577e-19</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>10.39442009475124</v>
+        <v>308701440936.4861</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1.095242191300577e-19</v>
+        <v>3.85521552767689e-10</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>308701440936.4861</v>
+        <v>10437.28347042704</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>3.85521552767689e-10</v>
+        <v>1.505688260985589e-06</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>10437.28347042704</v>
+        <v>6.26317838793853</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>1.505688260985589e-06</v>
+        <v>2.336470713410822</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>6.26317838793853</v>
+        <v>5.906424098771432e-05</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>2.336470713410822</v>
+        <v>9.23566783580192</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>5.906424098771432e-05</v>
+        <v>0.9569384586208024</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>9.23566783580192</v>
+        <v>0.626851486820048</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9569384586208024</v>
+        <v>724</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>0.626851486820048</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>724</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>21.05789081185956</v>
       </c>
     </row>
@@ -8046,72 +7860,66 @@
         <v>1.152835287154099e-09</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.1061353957205818</v>
+        <v>4.003443918808698e-09</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.1692871515571</v>
+        <v>3.979985611807507e-07</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>4.003443918808698e-09</v>
+        <v>-0.05787918223174736</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>3.979985611807507e-07</v>
+        <v>0.01350566595747517</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.05787918223174736</v>
+        <v>0.003532134309109045</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.01350566595747517</v>
+        <v>1.900348303334378</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.003532134309109045</v>
+        <v>3.938513991321984</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.947135062788584</v>
+        <v>10.48984332824493</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>3.938513991321984</v>
+        <v>1.075406586209216e-19</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>10.48984332824493</v>
+        <v>305062271611.8942</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1.075406586209216e-19</v>
+        <v>3.88308029285755e-10</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>305062271611.8942</v>
+        <v>10008.05519062287</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>3.88308029285755e-10</v>
+        <v>1.769647937282174e-06</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>10008.05519062287</v>
+        <v>6.385111917265491</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>1.769647937282174e-06</v>
+        <v>2.313638321889134</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>6.385111917265491</v>
+        <v>7.214793445166919e-05</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>2.313638321889134</v>
+        <v>9.162492530978003</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>7.214793445166919e-05</v>
+        <v>0.9577489330724592</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>9.162492530978003</v>
+        <v>0.5865512514044626</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9577489330724592</v>
+        <v>712</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>0.5865512514044626</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>712</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>21.26492963316802</v>
       </c>
     </row>
@@ -8126,72 +7934,66 @@
         <v>1.148947041192342e-09</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.1085452469160369</v>
+        <v>3.920335765060218e-09</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.160094920392702</v>
+        <v>3.979325029416578e-07</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>3.920335765060218e-09</v>
+        <v>-0.05686823258279589</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>3.979325029416578e-07</v>
+        <v>0.01337807366490509</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.05686823258279589</v>
+        <v>0.003412792496042119</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.01337807366490509</v>
+        <v>1.895515179687269</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.003412792496042119</v>
+        <v>3.79924680552165</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.94526442236518</v>
+        <v>10.35941789204396</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>3.79924680552165</v>
+        <v>1.102655861427148e-19</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>10.35941789204396</v>
+        <v>298645044093.3356</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1.102655861427148e-19</v>
+        <v>3.960093829855302e-10</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>298645044093.3356</v>
+        <v>9834.462185693854</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>3.960093829855302e-10</v>
+        <v>2.090503309918965e-06</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>9834.462185693854</v>
+        <v>6.21931599747055</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>2.090503309918965e-06</v>
+        <v>2.220484737204052</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>6.21931599747055</v>
+        <v>8.086044115870612e-05</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>2.220484737204052</v>
+        <v>9.117264377664334</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>8.086044115870612e-05</v>
+        <v>0.9577654454405548</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>9.117264377664334</v>
+        <v>0.5911232936627526</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9577654454405548</v>
+        <v>702</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>0.5911232936627526</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>702</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>21.26691807702925</v>
       </c>
     </row>
@@ -8568,7 +8370,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.309995434337347</v>
+        <v>1.312978971527835</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.111628934127966</v>
@@ -8657,7 +8459,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.290746255556776</v>
+        <v>1.290860564642055</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.098940519184012</v>
@@ -8746,7 +8548,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.314351189245832</v>
+        <v>1.310967371928542</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.899922587629611</v>
@@ -8835,7 +8637,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.311609697920541</v>
+        <v>1.311309617251132</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.14420010440437</v>
@@ -8924,7 +8726,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.29703113391758</v>
+        <v>1.29221754575228</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.099831707112171</v>
@@ -9013,7 +8815,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.267430648170336</v>
+        <v>1.259297559472517</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.14732349809133</v>
@@ -9102,7 +8904,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.263119153877333</v>
+        <v>1.247262936717142</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.138211593188974</v>
@@ -9191,7 +8993,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.264930622516684</v>
+        <v>1.249683072219115</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.072526839211926</v>
@@ -9280,7 +9082,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.252888670236312</v>
+        <v>1.229692202707199</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.319970137687378</v>
@@ -9369,7 +9171,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.26308926121309</v>
+        <v>1.242738861097524</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.521578171461693</v>
@@ -9458,7 +9260,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.249573834740043</v>
+        <v>1.227774077339712</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.361495733266542</v>
@@ -9547,7 +9349,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.269917627442277</v>
+        <v>1.244378172873887</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.238199093518641</v>
@@ -9636,7 +9438,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.278785632314592</v>
+        <v>1.252947623364866</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.597462684526999</v>
@@ -9725,7 +9527,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.29073670613271</v>
+        <v>1.260207706187487</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.590508699069932</v>
@@ -9814,7 +9616,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.293288797371118</v>
+        <v>1.265031778038748</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.366069567480705</v>
@@ -9903,7 +9705,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.300622537483508</v>
+        <v>1.272858923543485</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.596545665659046</v>
@@ -9992,7 +9794,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.314311255541363</v>
+        <v>1.286918497362403</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.331112666788322</v>
@@ -10081,7 +9883,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.314658151748089</v>
+        <v>1.284202351750368</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.618212068076057</v>
@@ -10170,7 +9972,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.30237140439898</v>
+        <v>1.27184677490031</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.518198815571407</v>
@@ -10259,7 +10061,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.313113230239209</v>
+        <v>1.280316513888279</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.207755865926506</v>
@@ -10348,7 +10150,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.339066608607905</v>
+        <v>1.306200669941462</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.44930693757688</v>
@@ -10437,7 +10239,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.347948750541113</v>
+        <v>1.310968998954693</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.230854347554314</v>
@@ -10526,7 +10328,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.338369323114375</v>
+        <v>1.307986630766142</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.406200441879734</v>
@@ -10615,7 +10417,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.365056360082743</v>
+        <v>1.330092782678317</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.099159460787794</v>
@@ -10704,7 +10506,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.364502891635891</v>
+        <v>1.329610617090258</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.421312574457211</v>
@@ -10793,7 +10595,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.380812560053631</v>
+        <v>1.346799304111704</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.376478665605822</v>
@@ -10882,7 +10684,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.391016292487716</v>
+        <v>1.352929114934921</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.209182530946129</v>
@@ -10971,7 +10773,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.382280842407594</v>
+        <v>1.349455442399595</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.335263782550502</v>
@@ -11060,7 +10862,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.412774743876388</v>
+        <v>1.378154117187639</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.341507906620915</v>
@@ -11149,7 +10951,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.409142861847316</v>
+        <v>1.371480665339618</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.329153145672088</v>
@@ -11238,7 +11040,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.396622883432556</v>
+        <v>1.364130796910486</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.248385011158144</v>
@@ -11327,7 +11129,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.422731903479631</v>
+        <v>1.387581142354656</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.18603642794937</v>
@@ -11416,7 +11218,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.455113350921657</v>
+        <v>1.420828854043304</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.189935864205684</v>
@@ -11505,7 +11307,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.465684550364356</v>
+        <v>1.433905901493145</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.211657940627981</v>
@@ -11594,7 +11396,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.465165927971944</v>
+        <v>1.436650707203242</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.089161263780408</v>
@@ -11683,7 +11485,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.474130126902716</v>
+        <v>1.448255257680988</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.071983592497944</v>
@@ -11772,7 +11574,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.45533842721674</v>
+        <v>1.429365671440587</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.068661244959852</v>
@@ -11861,7 +11663,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.460246324685361</v>
+        <v>1.436288776023901</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.248774232117811</v>
@@ -11950,7 +11752,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.464104338588743</v>
+        <v>1.443656953010601</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.206545971805491</v>
@@ -12039,7 +11841,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.469040789939724</v>
+        <v>1.45294247046224</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.280431824916304</v>
@@ -12128,7 +11930,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.473197228850476</v>
+        <v>1.455510952780612</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.404766032436211</v>
@@ -12217,7 +12019,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.474373254437081</v>
+        <v>1.457922290821786</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.22453793165786</v>
@@ -12306,7 +12108,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.47662635061258</v>
+        <v>1.460178672348108</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.330780280330692</v>
@@ -12395,7 +12197,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.44961325307383</v>
+        <v>1.43812545908278</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.347811950863532</v>
@@ -12484,7 +12286,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.451925843572093</v>
+        <v>1.437720502808504</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.404872839817604</v>
@@ -12573,7 +12375,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.440920058918342</v>
+        <v>1.432130883921076</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.457132123226003</v>
@@ -12662,7 +12464,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.447605834336307</v>
+        <v>1.441702861578056</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.389752667058391</v>
@@ -12751,7 +12553,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.436799683690106</v>
+        <v>1.428273345120553</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.460479091307923</v>
@@ -12840,7 +12642,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.41217419707997</v>
+        <v>1.40126446160279</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.351340314757343</v>
@@ -12929,7 +12731,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.413865285076795</v>
+        <v>1.400476530838745</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.248630064992105</v>
@@ -13018,7 +12820,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.379482880434917</v>
+        <v>1.365524412169801</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.359796510900898</v>
@@ -13107,7 +12909,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.368542196882115</v>
+        <v>1.356960998972582</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.208675484518074</v>
@@ -13196,7 +12998,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.371777396802606</v>
+        <v>1.360518658179726</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.438105930964672</v>
@@ -13285,7 +13087,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.376531726603794</v>
+        <v>1.365488033309817</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.378752610837034</v>
@@ -13374,7 +13176,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.365931423422541</v>
+        <v>1.354072189639342</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.35080159146527</v>
@@ -13463,7 +13265,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.345209112873441</v>
+        <v>1.332363341662084</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.330595200234292</v>
@@ -13552,7 +13354,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.356582439561434</v>
+        <v>1.344156126391962</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.317173791346081</v>
@@ -13641,7 +13443,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.353378659588987</v>
+        <v>1.341245910850872</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.353426625523374</v>
@@ -13730,7 +13532,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.370422918382002</v>
+        <v>1.357792279018232</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.435792822268548</v>
@@ -13819,7 +13621,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.376824880075771</v>
+        <v>1.361485311436775</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.373913819372906</v>
@@ -13908,7 +13710,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.378457303839677</v>
+        <v>1.363518448435288</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.380266775026611</v>
@@ -13997,7 +13799,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.370277548695599</v>
+        <v>1.354836659205435</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.324669258081203</v>
@@ -14086,7 +13888,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.367304032033142</v>
+        <v>1.350118589308517</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.269188604693604</v>
@@ -14175,7 +13977,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.385859887140636</v>
+        <v>1.369424041605298</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.174286110091561</v>
@@ -14264,7 +14066,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.403235605585411</v>
+        <v>1.38651206990829</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.170966301689215</v>
@@ -14353,7 +14155,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.435033489369339</v>
+        <v>1.418645493569068</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.173252604501852</v>
@@ -14442,7 +14244,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.455668006210255</v>
+        <v>1.441343016334617</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.232467228371446</v>
@@ -14531,7 +14333,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.453739519539633</v>
+        <v>1.43895888963643</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.301032308461281</v>
@@ -14620,7 +14422,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.465220992799921</v>
+        <v>1.450402889080024</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.311744478799468</v>
@@ -14709,7 +14511,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.494924456925593</v>
+        <v>1.478837397820628</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.505372542938604</v>
@@ -14798,7 +14600,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.532592037103645</v>
+        <v>1.515704954391057</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.254306560105795</v>
@@ -14887,7 +14689,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.498112553140607</v>
+        <v>1.486746040811673</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.269785757220471</v>
@@ -14976,7 +14778,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.49976314802322</v>
+        <v>1.488733213980495</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.301580211263505</v>
@@ -15065,7 +14867,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.502566087093688</v>
+        <v>1.490205310445623</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.386157878360683</v>
@@ -15154,7 +14956,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.520456974083507</v>
+        <v>1.505477766306578</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.388915987092956</v>
@@ -15243,7 +15045,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.49682358811656</v>
+        <v>1.492241458990874</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.389859326042671</v>
@@ -15529,7 +15331,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.495290156655268</v>
+        <v>1.478219478190605</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.576834460940662</v>
@@ -15618,7 +15420,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.496099772306946</v>
+        <v>1.471154069652307</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.465641614214505</v>
@@ -15707,7 +15509,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.523250559716698</v>
+        <v>1.491706045540451</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.424591978906545</v>
@@ -15796,7 +15598,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.524256205895704</v>
+        <v>1.495748088634109</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.629277527366163</v>
@@ -15885,7 +15687,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.509549093328635</v>
+        <v>1.48221969823232</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.485628747680167</v>
@@ -15974,7 +15776,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.503162596480374</v>
+        <v>1.475665790403317</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.391971556303187</v>
@@ -16063,7 +15865,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.496401337825966</v>
+        <v>1.463072240466625</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.436396063458682</v>
@@ -16152,7 +15954,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.513648200454375</v>
+        <v>1.474601871540959</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.608771870421966</v>
@@ -16241,7 +16043,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.52979588075509</v>
+        <v>1.481672341307802</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.67291064847611</v>
@@ -16330,7 +16132,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.535713209610815</v>
+        <v>1.484617605142017</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.127208260483301</v>
@@ -16419,7 +16221,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.538598793066267</v>
+        <v>1.486811967037874</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.371387092170673</v>
@@ -16508,7 +16310,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.549597022180873</v>
+        <v>1.488978323207343</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.229572817150476</v>
@@ -16597,7 +16399,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.552421345135913</v>
+        <v>1.485683892506162</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.185481038384632</v>
@@ -16686,7 +16488,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.541656719586649</v>
+        <v>1.473150567748483</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.997013226700518</v>
@@ -16775,7 +16577,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.5284697538768</v>
+        <v>1.462895314833399</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.836373379342135</v>
@@ -16864,7 +16666,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.52433909949974</v>
+        <v>1.460590122533172</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.85842865119051</v>
@@ -16953,7 +16755,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.521922576078649</v>
+        <v>1.458972158222653</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.602318187897624</v>
@@ -17042,7 +16844,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.514323630375416</v>
+        <v>1.452779508959716</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.973986352322372</v>
@@ -17131,7 +16933,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.505511684927711</v>
+        <v>1.441749742450878</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.86947569677461</v>
@@ -17220,7 +17022,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.500307171238951</v>
+        <v>1.438417683449709</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.762125555845294</v>
@@ -17309,7 +17111,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.506826437666245</v>
+        <v>1.440368077745393</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.020901370177311</v>
@@ -17398,7 +17200,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.515297835102091</v>
+        <v>1.447973638855099</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.489782745850901</v>
@@ -17487,7 +17289,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.511894600579362</v>
+        <v>1.450086397799827</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.875519292987804</v>
@@ -17576,7 +17378,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.499653517106975</v>
+        <v>1.434529758924731</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.516247051416598</v>
@@ -17665,7 +17467,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.494469349506741</v>
+        <v>1.432983341731594</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.564670232655534</v>
@@ -17754,7 +17556,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.48295092015008</v>
+        <v>1.426096214686327</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.494657523095269</v>
@@ -17843,7 +17645,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.473503236944278</v>
+        <v>1.421249013294473</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.511684069569262</v>
@@ -17932,7 +17734,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.467315785521376</v>
+        <v>1.42127179158783</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.651047163002078</v>
@@ -18021,7 +17823,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.478904833547829</v>
+        <v>1.4345078721231</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.505072824435291</v>
@@ -18110,7 +17912,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.477404259289844</v>
+        <v>1.433195156000971</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.585999897852636</v>
@@ -18199,7 +18001,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.481000167285944</v>
+        <v>1.443879802426907</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.612853431475355</v>
@@ -18288,7 +18090,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.484932376756009</v>
+        <v>1.449956544087422</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.598293491202783</v>
@@ -18377,7 +18179,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.484048409541274</v>
+        <v>1.447714941777659</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.632771177984584</v>
@@ -18466,7 +18268,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.486593081248921</v>
+        <v>1.453009622042905</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.452396801059776</v>
@@ -18555,7 +18357,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.500946873687365</v>
+        <v>1.465538567170094</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.406843083978697</v>
@@ -18644,7 +18446,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.502178708264888</v>
+        <v>1.466736653784467</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.361812739991848</v>
@@ -18733,7 +18535,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.48692974574976</v>
+        <v>1.454504681945658</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.439778436015065</v>
@@ -18822,7 +18624,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.486657135649464</v>
+        <v>1.44980902522252</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.555914884529098</v>
@@ -18911,7 +18713,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.490987685101415</v>
+        <v>1.464207123873723</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.506959060226539</v>
@@ -19000,7 +18802,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.492810443313393</v>
+        <v>1.458942291603763</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.649481260903477</v>
@@ -19089,7 +18891,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.501322231475567</v>
+        <v>1.462045982117406</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.720124903759844</v>
@@ -19178,7 +18980,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.517293879541052</v>
+        <v>1.473829404258326</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.446875294698905</v>
@@ -19267,7 +19069,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.52950101754598</v>
+        <v>1.487185817492263</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.768857875797487</v>
@@ -19356,7 +19158,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.526520331149961</v>
+        <v>1.48617977117759</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.782555373050488</v>
@@ -19445,7 +19247,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.529156472007509</v>
+        <v>1.488158066836448</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.83711742600313</v>
@@ -19534,7 +19336,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.524108443602629</v>
+        <v>1.48036154441346</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.716960953408204</v>
@@ -19623,7 +19425,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.509923096110919</v>
+        <v>1.469292129124436</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.821500214031202</v>
@@ -19712,7 +19514,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.51174119127472</v>
+        <v>1.468890091758947</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.823422571771553</v>
@@ -19801,7 +19603,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.508322873819131</v>
+        <v>1.464936806763834</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.807655950588348</v>
@@ -19890,7 +19692,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.499738019451546</v>
+        <v>1.455024649129438</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.853099422866588</v>
@@ -19979,7 +19781,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.494484037555097</v>
+        <v>1.455521400042915</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.906804118005096</v>
@@ -20068,7 +19870,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.49664201944479</v>
+        <v>1.455104139046053</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.852790700811143</v>
@@ -20157,7 +19959,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.512246010880413</v>
+        <v>1.470321477309221</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.614666787508265</v>
@@ -20246,7 +20048,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.510516162434037</v>
+        <v>1.469512786092585</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.924336364035267</v>
@@ -20335,7 +20137,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.499873260671943</v>
+        <v>1.463805938992783</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.935056308142071</v>
@@ -20424,7 +20226,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.493675968598752</v>
+        <v>1.452400391080779</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.01654834410752</v>
@@ -20513,7 +20315,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.492428101933486</v>
+        <v>1.455680665760501</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.851408414924485</v>
@@ -20602,7 +20404,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.484366735259839</v>
+        <v>1.448665488878194</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.8657845761193</v>
@@ -20691,7 +20493,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.489858287156821</v>
+        <v>1.451707429400204</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.860169655875324</v>
@@ -20780,7 +20582,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.475264815459333</v>
+        <v>1.442997981726193</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.977204369620128</v>
@@ -20869,7 +20671,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.471963391273461</v>
+        <v>1.443390734690861</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.905274834886235</v>
@@ -20958,7 +20760,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.488070748080007</v>
+        <v>1.456977351343681</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.798836947742099</v>
@@ -21047,7 +20849,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.49594768582704</v>
+        <v>1.466613102512291</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.715835926272381</v>
@@ -21136,7 +20938,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.518435921361229</v>
+        <v>1.488477436330529</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.925724595965775</v>
@@ -21225,7 +21027,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.522960087665526</v>
+        <v>1.496854034686825</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.89897340823376</v>
@@ -21314,7 +21116,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.531599098399344</v>
+        <v>1.504688034877378</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.941144065265257</v>
@@ -21403,7 +21205,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.532634385974866</v>
+        <v>1.504229534566212</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.951434001040692</v>
@@ -21492,7 +21294,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.525181328515722</v>
+        <v>1.495485852913989</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.784965948991271</v>
@@ -21581,7 +21383,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.539610646865285</v>
+        <v>1.509990243924053</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.052630535605337</v>
@@ -21670,7 +21472,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.558300960948712</v>
+        <v>1.528551071837839</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.907348537544294</v>
@@ -21759,7 +21561,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.560611195331281</v>
+        <v>1.531971662545119</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.810118080449961</v>
@@ -21848,7 +21650,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.554690726011434</v>
+        <v>1.525185395393353</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.714695755094036</v>
@@ -21937,7 +21739,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.553616609097815</v>
+        <v>1.522972001953894</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.697440263925045</v>
@@ -22026,7 +21828,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.551364191544992</v>
+        <v>1.520378122646576</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.70894710538305</v>
@@ -22115,7 +21917,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.527286782364512</v>
+        <v>1.495692613561751</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.367346214689424</v>
@@ -22204,7 +22006,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.514028687632134</v>
+        <v>1.489540760483008</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.352869322042197</v>
@@ -22490,7 +22292,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.584797789522306</v>
+        <v>1.562318708626039</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.965558530362237</v>
@@ -22579,7 +22381,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.575726314231671</v>
+        <v>1.552957106644566</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.793205158059264</v>
@@ -22668,7 +22470,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.59114117114386</v>
+        <v>1.564161830008156</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.777458294508654</v>
@@ -22757,7 +22559,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.584681481417056</v>
+        <v>1.555489999556119</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.066732950991668</v>
@@ -22846,7 +22648,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.582275317811188</v>
+        <v>1.550882164719571</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.081784649522095</v>
@@ -22935,7 +22737,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.557082646959999</v>
+        <v>1.52610029772189</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.089576193417075</v>
@@ -23024,7 +22826,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.554542067601096</v>
+        <v>1.516886264833227</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.01061041705148</v>
@@ -23113,7 +22915,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.558605232205317</v>
+        <v>1.518154672227736</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.945610518960763</v>
@@ -23202,7 +23004,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.551617448752295</v>
+        <v>1.504500495345477</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.843894839356028</v>
@@ -23291,7 +23093,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.555342659066842</v>
+        <v>1.510866207181369</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.189718147111385</v>
@@ -23380,7 +23182,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.551512025028582</v>
+        <v>1.506278348785735</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.282019433603637</v>
@@ -23469,7 +23271,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.561396205439344</v>
+        <v>1.509015275201061</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.811562919491565</v>
@@ -23558,7 +23360,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.549744306084343</v>
+        <v>1.499822713779375</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.009214432974503</v>
@@ -23647,7 +23449,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.544764497899042</v>
+        <v>1.493787680472042</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.984599347648007</v>
@@ -23736,7 +23538,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.543756942163512</v>
+        <v>1.501031128299959</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.882008396948562</v>
@@ -23825,7 +23627,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.544677240408106</v>
+        <v>1.500077650204372</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.463321472887044</v>
@@ -23914,7 +23716,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.551487412545789</v>
+        <v>1.508090528169868</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.13370500846397</v>
@@ -24003,7 +23805,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.546787754982919</v>
+        <v>1.505975456954998</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.646418725483365</v>
@@ -24092,7 +23894,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.542447842297313</v>
+        <v>1.499038251115468</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.41717239406104</v>
@@ -24181,7 +23983,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.542315727511965</v>
+        <v>1.500966708826026</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.913439498354777</v>
@@ -24270,7 +24072,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.559791007033441</v>
+        <v>1.515911449113276</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.464413464145688</v>
@@ -24359,7 +24161,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.560387067687814</v>
+        <v>1.517971884177631</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.926952608699193</v>
@@ -24448,7 +24250,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.566132912402974</v>
+        <v>1.524681442666684</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.511934173492122</v>
@@ -24537,7 +24339,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.579893947969328</v>
+        <v>1.532635991061886</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.008489078596698</v>
@@ -24626,7 +24428,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.572507118245535</v>
+        <v>1.525366019426862</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.265403311878118</v>
@@ -24715,7 +24517,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.578114812069332</v>
+        <v>1.528648138780675</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.295792511370509</v>
@@ -24804,7 +24606,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.583245115756672</v>
+        <v>1.534607596488729</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.106133486579194</v>
@@ -24893,7 +24695,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.590972000846772</v>
+        <v>1.541913435559239</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.425399738854061</v>
@@ -24982,7 +24784,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.596074045737006</v>
+        <v>1.546450911861951</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.097373837175998</v>
@@ -25071,7 +24873,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.604141032477356</v>
+        <v>1.550690218202172</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.995785458135512</v>
@@ -25160,7 +24962,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.6108279791208</v>
+        <v>1.56279752143354</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.117661872182207</v>
@@ -25249,7 +25051,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.606080368011608</v>
+        <v>1.555992811557687</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.228478264093412</v>
@@ -25338,7 +25140,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.603564762431217</v>
+        <v>1.556830758342802</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.87689473143956</v>
@@ -25427,7 +25229,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.601989565393381</v>
+        <v>1.557348984001254</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.286867286307925</v>
@@ -25516,7 +25318,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.607894838105766</v>
+        <v>1.563680392121273</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.064821410608821</v>
@@ -25605,7 +25407,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.610539797364921</v>
+        <v>1.568019393895639</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.053992817022424</v>
@@ -25694,7 +25496,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.601372393637763</v>
+        <v>1.561415151778494</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.231372183949646</v>
@@ -25783,7 +25585,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.59883772064705</v>
+        <v>1.561108772544768</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.134470499261224</v>
@@ -25872,7 +25674,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.603400015982719</v>
+        <v>1.567943644337931</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.509104755920531</v>
@@ -25961,7 +25763,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.603850130786521</v>
+        <v>1.567747493429758</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.365225567747384</v>
@@ -26050,7 +25852,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.604627262148445</v>
+        <v>1.567405268490857</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.219300236629443</v>
@@ -26139,7 +25941,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.606568575256309</v>
+        <v>1.567233920030926</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.439905414413008</v>
@@ -26228,7 +26030,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.596943974307028</v>
+        <v>1.556327082094164</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.590840405012033</v>
@@ -26317,7 +26119,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.591058104740432</v>
+        <v>1.554714165454288</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.662387291941095</v>
@@ -26406,7 +26208,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.588085583200023</v>
+        <v>1.550341216769354</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.275565079933721</v>
@@ -26495,7 +26297,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.585225574287854</v>
+        <v>1.543834197719423</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.316873208042904</v>
@@ -26584,7 +26386,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.596611974696122</v>
+        <v>1.553134371688319</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.751699372252415</v>
@@ -26673,7 +26475,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.603219175674023</v>
+        <v>1.559039472723056</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.946332008268115</v>
@@ -26762,7 +26564,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.604158270245392</v>
+        <v>1.558586190850198</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.64992003869681</v>
@@ -26851,7 +26653,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.598181393546443</v>
+        <v>1.546461642344487</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.136687272948064</v>
@@ -26940,7 +26742,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.588036752081478</v>
+        <v>1.536357715616001</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.412171878479324</v>
@@ -27029,7 +26831,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.587221968041454</v>
+        <v>1.53618265773043</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.173448769008619</v>
@@ -27118,7 +26920,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.589553144448753</v>
+        <v>1.539507760809006</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.356093556777441</v>
@@ -27207,7 +27009,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.597462898398227</v>
+        <v>1.548618420651343</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.408447680061898</v>
@@ -27296,7 +27098,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.600262631989165</v>
+        <v>1.551463185740635</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.302114790264326</v>
@@ -27385,7 +27187,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.594373845604092</v>
+        <v>1.550483032438428</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.262467596319378</v>
@@ -27474,7 +27276,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.600183946832686</v>
+        <v>1.555442915763105</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.308060887432939</v>
@@ -27563,7 +27365,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.60455072355353</v>
+        <v>1.563974179757411</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.05339319107695</v>
@@ -27652,7 +27454,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.613845626522778</v>
+        <v>1.573579300470682</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.54983511407904</v>
@@ -27741,7 +27543,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.620599659061513</v>
+        <v>1.57583642193096</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.060324211585982</v>
@@ -27830,7 +27632,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.612461249548438</v>
+        <v>1.570828584334833</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.248409088058821</v>
@@ -27919,7 +27721,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.609787917200352</v>
+        <v>1.566039973171671</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.142334130360586</v>
@@ -28008,7 +27810,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.605205866033671</v>
+        <v>1.56470624424053</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.288957288934387</v>
@@ -28097,7 +27899,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.612776493090777</v>
+        <v>1.573091908607771</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.125872073701626</v>
@@ -28186,7 +27988,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.625450531812109</v>
+        <v>1.586255884046722</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.021419812816469</v>
@@ -28275,7 +28077,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.630042715176315</v>
+        <v>1.591370956074439</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.95471447656629</v>
@@ -28364,7 +28166,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.629892462837863</v>
+        <v>1.589273284770207</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.33687674571315</v>
@@ -28453,7 +28255,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.630581430399256</v>
+        <v>1.587035167927772</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.424826976680576</v>
@@ -28542,7 +28344,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.639271412134141</v>
+        <v>1.596788505011009</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.417175359358616</v>
@@ -28631,7 +28433,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.647488961300611</v>
+        <v>1.607268855684635</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.354647877640921</v>
@@ -28720,7 +28522,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.662145752335452</v>
+        <v>1.619683799116603</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.542561592805677</v>
@@ -28809,7 +28611,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.655150047124711</v>
+        <v>1.621688555359244</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.569000580027502</v>
@@ -28898,7 +28700,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.648614944896481</v>
+        <v>1.611571636217048</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.649195799220601</v>
@@ -28987,7 +28789,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.652516637600128</v>
+        <v>1.615548579650251</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.665991034736071</v>
@@ -29076,7 +28878,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.653475060141476</v>
+        <v>1.61700200461467</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.337954258835252</v>
@@ -29165,7 +28967,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.648736692687131</v>
+        <v>1.615480831991299</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.405722967080261</v>
@@ -29451,7 +29253,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.732478331141813</v>
+        <v>1.68754198997177</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.218294409134608</v>
@@ -29540,7 +29342,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.722452149672137</v>
+        <v>1.67647246976243</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.078734108695401</v>
@@ -29629,7 +29431,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.737342064401681</v>
+        <v>1.685516355352913</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.45657835288143</v>
@@ -29718,7 +29520,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.736995500923151</v>
+        <v>1.679480866546557</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.213314989901568</v>
@@ -29807,7 +29609,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.727526430624789</v>
+        <v>1.67533195786511</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.544976870330776</v>
@@ -29896,7 +29698,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.70488687314747</v>
+        <v>1.660833269069496</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.247934086794296</v>
@@ -29985,7 +29787,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.695656190135508</v>
+        <v>1.650385472682447</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.547820296423696</v>
@@ -30074,7 +29876,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.686811378686148</v>
+        <v>1.630411487484245</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.658943284148595</v>
@@ -30163,7 +29965,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.672583111994185</v>
+        <v>1.617282170052024</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.628671249756361</v>
@@ -30252,7 +30054,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.673106449431145</v>
+        <v>1.610115177648271</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.43988260575933</v>
@@ -30341,7 +30143,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.654498548866083</v>
+        <v>1.593889420824341</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.310140126689955</v>
@@ -30430,7 +30232,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.64954632273244</v>
+        <v>1.581340704656876</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.992776624028273</v>
@@ -30519,7 +30321,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.645985229986564</v>
+        <v>1.578620932976317</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.509288520424998</v>
@@ -30608,7 +30410,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.644945259430635</v>
+        <v>1.583531622037445</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.454444092739837</v>
@@ -30697,7 +30499,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.645969090576272</v>
+        <v>1.591657941949077</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.231005756132857</v>
@@ -30786,7 +30588,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.641397488896269</v>
+        <v>1.590260391238077</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.545589552437723</v>
@@ -30875,7 +30677,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.643444665562636</v>
+        <v>1.590966153095026</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.167123450712361</v>
@@ -30964,7 +30766,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.645658806723777</v>
+        <v>1.591802652852614</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.404894896417808</v>
@@ -31053,7 +30855,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.641964834592076</v>
+        <v>1.586052788641195</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.019839958782767</v>
@@ -31142,7 +30944,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.655452873641911</v>
+        <v>1.596277912047906</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.387177390366029</v>
@@ -31231,7 +31033,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.675631191581219</v>
+        <v>1.613937352957311</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.388012434494644</v>
@@ -31320,7 +31122,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.681691891798456</v>
+        <v>1.622124550673218</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.924045437632906</v>
@@ -31409,7 +31211,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.68507826912395</v>
+        <v>1.634278641425104</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.037106900363398</v>
@@ -31498,7 +31300,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.700459124826072</v>
+        <v>1.648696417638785</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.008253100442739</v>
@@ -31587,7 +31389,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.713030815447025</v>
+        <v>1.665249748084483</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.421651828048289</v>
@@ -31676,7 +31478,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.732732605622441</v>
+        <v>1.681422170578611</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.740700435932637</v>
@@ -31765,7 +31567,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.742183595090471</v>
+        <v>1.690319135849708</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.633772156189161</v>
@@ -31854,7 +31656,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.744158155019931</v>
+        <v>1.691888387355929</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.678545357966612</v>
@@ -31943,7 +31745,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.748456711013343</v>
+        <v>1.696499240347458</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.669183402952852</v>
@@ -32032,7 +31834,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.74885921304056</v>
+        <v>1.695843581494018</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.700851320743684</v>
@@ -32121,7 +31923,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.749804961026606</v>
+        <v>1.699937698116739</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.114742168410774</v>
@@ -32210,7 +32012,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.757170700944863</v>
+        <v>1.708435662930403</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.803839463700202</v>
@@ -32299,7 +32101,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.765164823542393</v>
+        <v>1.715323823591055</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.086914710772868</v>
@@ -32388,7 +32190,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.76795014657324</v>
+        <v>1.721566908003529</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.9294998793469</v>
@@ -32477,7 +32279,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.765551965068012</v>
+        <v>1.721545360363903</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.705140638741669</v>
@@ -32566,7 +32368,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.773123551726834</v>
+        <v>1.729311930468278</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.917022750001204</v>
@@ -32655,7 +32457,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.760535398602436</v>
+        <v>1.720027953275215</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.696437195319178</v>
@@ -32744,7 +32546,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.764875207140382</v>
+        <v>1.720457890249089</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.874774042384241</v>
@@ -32833,7 +32635,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.758181114463643</v>
+        <v>1.71735826944222</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.64838438448125</v>
@@ -32922,7 +32724,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.758414167726951</v>
+        <v>1.710803842496048</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.504280708779607</v>
@@ -33011,7 +32813,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.766978285141263</v>
+        <v>1.72158873772528</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.511422745433128</v>
@@ -33100,7 +32902,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.769096789142065</v>
+        <v>1.721116859191788</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.964068762055957</v>
@@ -33189,7 +32991,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.768832046965289</v>
+        <v>1.723293219928498</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.375042267308125</v>
@@ -33278,7 +33080,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.769199544304405</v>
+        <v>1.725943385396665</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.599288141398921</v>
@@ -33367,7 +33169,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.776178306915283</v>
+        <v>1.725847067102463</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.82772753209351</v>
@@ -33456,7 +33258,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.766732015483996</v>
+        <v>1.712868433117809</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.64224981188529</v>
@@ -33545,7 +33347,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.759801358934319</v>
+        <v>1.703867488662383</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.659767158822159</v>
@@ -33634,7 +33436,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.756827996436206</v>
+        <v>1.704954363999614</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.261714541260135</v>
@@ -33723,7 +33525,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.762408904584699</v>
+        <v>1.708755931113223</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.618271034290969</v>
@@ -33812,7 +33614,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.757536430821785</v>
+        <v>1.70437408212443</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.360163254379104</v>
@@ -33901,7 +33703,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.741540869795614</v>
+        <v>1.689979408847527</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.438448826240085</v>
@@ -33990,7 +33792,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.740304644823764</v>
+        <v>1.690244879066953</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.535860126558034</v>
@@ -34079,7 +33881,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.738972172236751</v>
+        <v>1.69233418856513</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.619638405412871</v>
@@ -34168,7 +33970,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.739435252363301</v>
+        <v>1.689453744753023</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.005000597579961</v>
@@ -34257,7 +34059,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.740843115358234</v>
+        <v>1.694566158788226</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.840722789231781</v>
@@ -34346,7 +34148,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.721914667808231</v>
+        <v>1.678111407822739</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.474094497303842</v>
@@ -34435,7 +34237,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.718985525751025</v>
+        <v>1.677073696464126</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.535197130190263</v>
@@ -34524,7 +34326,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.718127317349192</v>
+        <v>1.677003914930732</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.3515073570658</v>
@@ -34613,7 +34415,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.713414865699401</v>
+        <v>1.669629209715142</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.646988027736342</v>
@@ -34702,7 +34504,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.717857211199297</v>
+        <v>1.677906683703476</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.662496076660107</v>
@@ -34791,7 +34593,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.726026527986521</v>
+        <v>1.6906412953281</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.609876862767205</v>
@@ -34880,7 +34682,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.728567166233449</v>
+        <v>1.695992015944042</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.550268021047434</v>
@@ -34969,7 +34771,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.731308974114605</v>
+        <v>1.690721945428765</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.229545073373833</v>
@@ -35058,7 +34860,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.724185011491556</v>
+        <v>1.684417112672163</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.320761863922163</v>
@@ -35147,7 +34949,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.731163649271928</v>
+        <v>1.689427918559829</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.824949822539731</v>
@@ -35236,7 +35038,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.741763320232732</v>
+        <v>1.701637013469974</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.953382049836067</v>
@@ -35325,7 +35127,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.744571138220494</v>
+        <v>1.703844432078799</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.073212826892381</v>
@@ -35414,7 +35216,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.745875853155741</v>
+        <v>1.702101807198158</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.270169805509385</v>
@@ -35503,7 +35305,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.75106126010934</v>
+        <v>1.708660646915759</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.42519381954837</v>
@@ -35592,7 +35394,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.755888750001925</v>
+        <v>1.711257026353836</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.229188021718727</v>
@@ -35681,7 +35483,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.769919772259919</v>
+        <v>1.726920308782182</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.02106634503552</v>
@@ -35770,7 +35572,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.774264890231877</v>
+        <v>1.732651349143882</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.505445513588533</v>
@@ -35859,7 +35661,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.770593035851485</v>
+        <v>1.725688445464471</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.532577787131392</v>
@@ -35948,7 +35750,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.779591032868784</v>
+        <v>1.734861262292014</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.334250697844112</v>
@@ -36037,7 +35839,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.778913038684517</v>
+        <v>1.737876849545245</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.193054280605498</v>
@@ -36126,7 +35928,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.780420070931491</v>
+        <v>1.73948954785583</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.156929827637994</v>
@@ -36412,7 +36214,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.439017629396118</v>
+        <v>1.454302339866533</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.491990045231685</v>
@@ -36501,7 +36303,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.428996496053357</v>
+        <v>1.443767644428531</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.434053530769547</v>
@@ -36590,7 +36392,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.464351767763099</v>
+        <v>1.475021264782436</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.686873237376644</v>
@@ -36679,7 +36481,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.467786694457903</v>
+        <v>1.483313087461893</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.765780373109453</v>
@@ -36768,7 +36570,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.450353254870149</v>
+        <v>1.46215261321283</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.781507724129199</v>
@@ -36857,7 +36659,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.407648352939905</v>
+        <v>1.411616853690884</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.841197817274659</v>
@@ -36946,7 +36748,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.389147404137252</v>
+        <v>1.39281833569813</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.807228907921821</v>
@@ -37035,7 +36837,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.401192233066571</v>
+        <v>1.395736956671584</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.826360218934707</v>
@@ -37124,7 +36926,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.407254710225318</v>
+        <v>1.400386859443686</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.543773523374059</v>
@@ -37213,7 +37015,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.415171797777166</v>
+        <v>1.40110333460142</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.872046094076358</v>
@@ -37302,7 +37104,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.420232778778215</v>
+        <v>1.408103747953756</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.741263703467265</v>
@@ -37391,7 +37193,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.430624838283678</v>
+        <v>1.415529216498131</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.712562144604732</v>
@@ -37480,7 +37282,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.416939270791182</v>
+        <v>1.407771638255455</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.00668610503208</v>
@@ -37569,7 +37371,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.414478703830895</v>
+        <v>1.400820564429755</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.823006182187946</v>
@@ -37658,7 +37460,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.406067677631851</v>
+        <v>1.391645049229345</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.989414715025424</v>
@@ -37747,7 +37549,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.406289167029308</v>
+        <v>1.391589299106476</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.960374742380997</v>
@@ -37836,7 +37638,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.41807710759805</v>
+        <v>1.403441677307614</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.719944098326982</v>
@@ -37925,7 +37727,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.405271765774769</v>
+        <v>1.389742169158418</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.944407973220698</v>
@@ -38014,7 +37816,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.400557967522107</v>
+        <v>1.378213226953222</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.81080139396627</v>
@@ -38103,7 +37905,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.400974334495756</v>
+        <v>1.37882575411174</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.792846459815759</v>
@@ -38192,7 +37994,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.408636095873468</v>
+        <v>1.383668747895731</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.86969210299304</v>
@@ -38281,7 +38083,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.405229240232688</v>
+        <v>1.379090844953929</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.911081048563174</v>
@@ -38370,7 +38172,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.395993320995103</v>
+        <v>1.37828150731167</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.893455545366537</v>
@@ -38459,7 +38261,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.404929247846</v>
+        <v>1.384368779117955</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.78055527760842</v>
@@ -38548,7 +38350,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.410814942501355</v>
+        <v>1.390741979198636</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.701550893845057</v>
@@ -38637,7 +38439,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.410270943025548</v>
+        <v>1.39486757681616</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.733183610786789</v>
@@ -38726,7 +38528,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.409249239945139</v>
+        <v>1.393544367584399</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.442195492831815</v>
@@ -38815,7 +38617,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.408250355095088</v>
+        <v>1.390134380450317</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.790708118341461</v>
@@ -38904,7 +38706,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.411345231361121</v>
+        <v>1.394441497843089</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.63373617778231</v>
@@ -38993,7 +38795,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.414726527131201</v>
+        <v>1.395969271418262</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.822240655155546</v>
@@ -39082,7 +38884,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.406552249661953</v>
+        <v>1.389746999832248</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.873417089976327</v>
@@ -39171,7 +38973,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.408675975644699</v>
+        <v>1.391452090963384</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.651988858101953</v>
@@ -39260,7 +39062,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.409179732694589</v>
+        <v>1.39390555109836</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.792398505731477</v>
@@ -39349,7 +39151,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.409597899458009</v>
+        <v>1.393343603174678</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.527575882679499</v>
@@ -39438,7 +39240,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.39680878287984</v>
+        <v>1.380940295298173</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.673330292567529</v>
@@ -39527,7 +39329,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.405460190600942</v>
+        <v>1.387719634717663</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.599526214735378</v>
@@ -39616,7 +39418,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.403742327829156</v>
+        <v>1.386149077439819</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.914783984767632</v>
@@ -39705,7 +39507,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.399451565040517</v>
+        <v>1.387211404551705</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.772942304014598</v>
@@ -39794,7 +39596,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.39807164484758</v>
+        <v>1.388867461105559</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.659130706644427</v>
@@ -39883,7 +39685,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.392547828675494</v>
+        <v>1.38062189841953</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.6929204408483</v>
@@ -39972,7 +39774,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.390824852382654</v>
+        <v>1.375522197962982</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.928254576555306</v>
@@ -40061,7 +39863,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.403632949487805</v>
+        <v>1.38834471096281</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.743457943326025</v>
@@ -40150,7 +39952,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.398628775653442</v>
+        <v>1.388395146154489</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.833502139236237</v>
@@ -40239,7 +40041,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.394017467471054</v>
+        <v>1.382258602037076</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.962588890814304</v>
@@ -40328,7 +40130,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.392296976703523</v>
+        <v>1.380762632913636</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.673081302213352</v>
@@ -40417,7 +40219,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.380769255050716</v>
+        <v>1.370244967421356</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.602905830228996</v>
@@ -40506,7 +40308,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.381585247847996</v>
+        <v>1.372455018599402</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.624638739010682</v>
@@ -40595,7 +40397,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.379391906875968</v>
+        <v>1.36761865520894</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.494741263167177</v>
@@ -40684,7 +40486,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.373894175609283</v>
+        <v>1.362384539626404</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.780362429951718</v>
@@ -40773,7 +40575,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.37080501076175</v>
+        <v>1.362342265090726</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.506010805474051</v>
@@ -40862,7 +40664,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.367043692697928</v>
+        <v>1.361244734539569</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.505925395522462</v>
@@ -40951,7 +40753,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.360261256752294</v>
+        <v>1.351086998792915</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.780560674504934</v>
@@ -41040,7 +40842,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.373963228293032</v>
+        <v>1.357894432543185</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.724279249876365</v>
@@ -41129,7 +40931,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.378089787380895</v>
+        <v>1.362340067044846</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.47359226335373</v>
@@ -41218,7 +41020,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.376679738136207</v>
+        <v>1.359882653762576</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.70450221761925</v>
@@ -41307,7 +41109,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.364777015509487</v>
+        <v>1.347452163018051</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.626705307947345</v>
@@ -41396,7 +41198,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.36946694270374</v>
+        <v>1.352459776441402</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.467298783153577</v>
@@ -41485,7 +41287,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.370211753508472</v>
+        <v>1.350334156323941</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.752942186778214</v>
@@ -41574,7 +41376,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.379236251032408</v>
+        <v>1.360039915926635</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.726357057699296</v>
@@ -41663,7 +41465,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.376251106435668</v>
+        <v>1.356666332668872</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.482906471772782</v>
@@ -41752,7 +41554,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.379015155834913</v>
+        <v>1.360257675842124</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.582112670946301</v>
@@ -41841,7 +41643,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.379794353398719</v>
+        <v>1.365326824928758</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.709854561892163</v>
@@ -41930,7 +41732,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.383019976889314</v>
+        <v>1.368921776601044</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.854425162389291</v>
@@ -42019,7 +41821,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.399664143448744</v>
+        <v>1.387496932112609</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.299448020967953</v>
@@ -42108,7 +41910,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.414981750299358</v>
+        <v>1.40119194997314</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.691104272978943</v>
@@ -42197,7 +41999,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.423785075816715</v>
+        <v>1.405329817595268</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.471109404943903</v>
@@ -42286,7 +42088,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.434449252508708</v>
+        <v>1.419398468406945</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.698198024844683</v>
@@ -42375,7 +42177,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.425626869512169</v>
+        <v>1.411253813341605</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.67676907627756</v>
@@ -42464,7 +42266,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.423987970829739</v>
+        <v>1.411288236433713</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.823337924240293</v>
@@ -42553,7 +42355,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.445783306355692</v>
+        <v>1.434713869666904</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.397175474915059</v>
@@ -42642,7 +42444,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.458991147425728</v>
+        <v>1.445460575106544</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.81218470773133</v>
@@ -42731,7 +42533,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.444726013207068</v>
+        <v>1.434055188418865</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.76090504111074</v>
@@ -42820,7 +42622,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.437953386247538</v>
+        <v>1.426342256015791</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.645085336791869</v>
@@ -42909,7 +42711,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.438736235814615</v>
+        <v>1.424654207718963</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.626452610525294</v>
@@ -42998,7 +42800,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.432583997459883</v>
+        <v>1.416429195608857</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.55170507277728</v>
@@ -43087,7 +42889,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.424755539929574</v>
+        <v>1.421557865351936</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.731152608651309</v>
@@ -43373,7 +43175,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.583156929981304</v>
+        <v>1.591719804891032</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.666731819426151</v>
@@ -43462,7 +43264,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.55793553863529</v>
+        <v>1.563367782059766</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.596689219902077</v>
@@ -43551,7 +43353,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.582009579704237</v>
+        <v>1.581712339253808</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.486369532832144</v>
@@ -43640,7 +43442,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.575405642302414</v>
+        <v>1.577542363969054</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.60960857522061</v>
@@ -43729,7 +43531,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.546369109662063</v>
+        <v>1.549198548150312</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.634381763030598</v>
@@ -43818,7 +43620,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.50295667294102</v>
+        <v>1.516323246538169</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.743985132107577</v>
@@ -43907,7 +43709,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.490694408775218</v>
+        <v>1.499636288618516</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.651940579185415</v>
@@ -43996,7 +43798,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.496181181387171</v>
+        <v>1.506487309151594</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.465196152009154</v>
@@ -44085,7 +43887,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.476336414803542</v>
+        <v>1.481320158228291</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.738285772251176</v>
@@ -44174,7 +43976,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.499385467032777</v>
+        <v>1.502980588475104</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.985612853713673</v>
@@ -44263,7 +44065,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.483491615345614</v>
+        <v>1.486737475809433</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.754493834691043</v>
@@ -44352,7 +44154,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.494532595166352</v>
+        <v>1.492207071545014</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.499611101317926</v>
@@ -44441,7 +44243,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.505176705347884</v>
+        <v>1.503133689864043</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.000944222562858</v>
@@ -44530,7 +44332,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.512025750251614</v>
+        <v>1.505365132993534</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.960253785831601</v>
@@ -44619,7 +44421,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.518642657556711</v>
+        <v>1.511939845560276</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.718246079653935</v>
@@ -44708,7 +44510,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.52730085393082</v>
+        <v>1.518955802221498</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.984219746137057</v>
@@ -44797,7 +44599,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.543771361636467</v>
+        <v>1.534817530511467</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.736334413466997</v>
@@ -44886,7 +44688,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.541786007603228</v>
+        <v>1.529719311008528</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.782595624425271</v>
@@ -44975,7 +44777,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.524810419677329</v>
+        <v>1.509044600781255</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.740511684462635</v>
@@ -45064,7 +44866,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.545618927813852</v>
+        <v>1.528610242340153</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.541703203468999</v>
@@ -45153,7 +44955,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.585294448872689</v>
+        <v>1.564267864774842</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.842422612721574</v>
@@ -45242,7 +45044,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.59944452312486</v>
+        <v>1.575742202309247</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.643499032992447</v>
@@ -45331,7 +45133,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.592874990929386</v>
+        <v>1.568031228532452</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.821847963061763</v>
@@ -45420,7 +45222,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.62071157763774</v>
+        <v>1.592998518062567</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.439120734799409</v>
@@ -45509,7 +45311,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.629234869876635</v>
+        <v>1.598711011068175</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.897105998988954</v>
@@ -45598,7 +45400,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.655736644760739</v>
+        <v>1.620688436769234</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.019009291217653</v>
@@ -45687,7 +45489,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.671704248487587</v>
+        <v>1.631407804171942</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.524669216880016</v>
@@ -45776,7 +45578,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.661157556094653</v>
+        <v>1.625081009510983</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.785069296429826</v>
@@ -45865,7 +45667,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.687630878365473</v>
+        <v>1.650129045390947</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.82289474011567</v>
@@ -45954,7 +45756,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.693997429167916</v>
+        <v>1.65615659715536</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.92930124871827</v>
@@ -46043,7 +45845,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.688670936426409</v>
+        <v>1.650122121328702</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.789085777651505</v>
@@ -46132,7 +45934,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.714699842309968</v>
+        <v>1.666937268228327</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.023987595403413</v>
@@ -46221,7 +46023,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.755426920990421</v>
+        <v>1.699942508039633</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.58325972674682</v>
@@ -46310,7 +46112,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.769548206684398</v>
+        <v>1.718142027071315</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.183953436106252</v>
@@ -46399,7 +46201,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.776117479681425</v>
+        <v>1.728219469247921</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.772743347351454</v>
@@ -46488,7 +46290,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.786250847877715</v>
+        <v>1.738129808690677</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.006142019192031</v>
@@ -46577,7 +46379,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.773556085227868</v>
+        <v>1.728177581876752</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.72039070946514</v>
@@ -46666,7 +46468,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.781646298865595</v>
+        <v>1.740747088542071</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.016643143044257</v>
@@ -46755,7 +46557,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.788554095007239</v>
+        <v>1.749976311644822</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.08953090183864</v>
@@ -46844,7 +46646,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.786680401899745</v>
+        <v>1.749860916397228</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.065424996051096</v>
@@ -46933,7 +46735,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.784289986444837</v>
+        <v>1.75273670546222</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.173827080195085</v>
@@ -47022,7 +46824,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.782818143333252</v>
+        <v>1.753635430266852</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.054938057718777</v>
@@ -47111,7 +46913,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.790331666143395</v>
+        <v>1.766537908760045</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.116373225204674</v>
@@ -47200,7 +47002,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.770769872084349</v>
+        <v>1.752699841953792</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.075811830043778</v>
@@ -47289,7 +47091,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.773337378283729</v>
+        <v>1.749454363783111</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.396800238109718</v>
@@ -47378,7 +47180,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.755944720243873</v>
+        <v>1.743341604412747</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.347426702042035</v>
@@ -47467,7 +47269,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.755912322756705</v>
+        <v>1.746987387295431</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.082336666033186</v>
@@ -47556,7 +47358,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.742857083620524</v>
+        <v>1.736469012968987</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.055580195975033</v>
@@ -47645,7 +47447,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.714882726818627</v>
+        <v>1.713470014444864</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.309580824555588</v>
@@ -47734,7 +47536,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.709413278489134</v>
+        <v>1.705235427624526</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.873938317612793</v>
@@ -47823,7 +47625,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.666267270146188</v>
+        <v>1.669495039533512</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.970100765721341</v>
@@ -47912,7 +47714,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.64754849459155</v>
+        <v>1.650594987747564</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.722186544261099</v>
@@ -48001,7 +47803,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.647965571414193</v>
+        <v>1.650819598151927</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.020506630413372</v>
@@ -48090,7 +47892,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.650843954577192</v>
+        <v>1.652817481355684</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.984087386054083</v>
@@ -48179,7 +47981,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.637121664366844</v>
+        <v>1.640965466870713</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.784468448639636</v>
@@ -48268,7 +48070,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.618922251189292</v>
+        <v>1.624689358515019</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.897274139062254</v>
@@ -48357,7 +48159,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.631537498746751</v>
+        <v>1.636170270689403</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.995028147174413</v>
@@ -48446,7 +48248,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.625000672475975</v>
+        <v>1.630162478347819</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.008119324098516</v>
@@ -48535,7 +48337,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.638599185390546</v>
+        <v>1.638638953953167</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.937559574576611</v>
@@ -48624,7 +48426,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.643848474566188</v>
+        <v>1.6444866461428</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.002083886979594</v>
@@ -48713,7 +48515,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.648931962375332</v>
+        <v>1.647572829141535</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.880078757110776</v>
@@ -48802,7 +48604,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.651428064856216</v>
+        <v>1.652937973489688</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.994838021849814</v>
@@ -48891,7 +48693,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.651720062580513</v>
+        <v>1.650305463408341</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.926502973012777</v>
@@ -48980,7 +48782,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.674644102734483</v>
+        <v>1.668883800973929</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.732508297133312</v>
@@ -49069,7 +48871,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.695247787835543</v>
+        <v>1.685687720825479</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.766121249720157</v>
@@ -49158,7 +48960,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.73642309243958</v>
+        <v>1.719827130843733</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.724741340733665</v>
@@ -49247,7 +49049,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.763600294778634</v>
+        <v>1.750811127158345</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.907062788282424</v>
@@ -49336,7 +49138,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.761451454120227</v>
+        <v>1.745561563775447</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.178188321200703</v>
@@ -49425,7 +49227,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.767651410202922</v>
+        <v>1.753560257008583</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.917397599136375</v>
@@ -49514,7 +49316,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.789528062248507</v>
+        <v>1.772178642770065</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.377521106090287</v>
@@ -49603,7 +49405,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.820091082252934</v>
+        <v>1.797704414070491</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.173416767612633</v>
@@ -49692,7 +49494,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.798332292484305</v>
+        <v>1.780031880000216</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.038866051109992</v>
@@ -49781,7 +49583,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.800742027202756</v>
+        <v>1.779681303546143</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.112381595085895</v>
@@ -49870,7 +49672,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.80708004545793</v>
+        <v>1.784130982606849</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.19528651350652</v>
@@ -49959,7 +49761,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.823320484534917</v>
+        <v>1.7976639027919</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.951790711922819</v>
@@ -50048,7 +49850,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.815233859066935</v>
+        <v>1.792629828748638</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.252777761732184</v>
